--- a/outputs_analysis_validation/summary_regression_analysis_validation.xlsx
+++ b/outputs_analysis_validation/summary_regression_analysis_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinelo A\Documents\GitHub\Data-Management-Final-Project-Agbim\outputs_analysis_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF3A95-06B5-4B94-91CE-CBA373FE85B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C7910-577C-4702-8BC8-FDD7CB807D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F4167412-87AA-4A82-8A37-BC717BF16E4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4167412-87AA-4A82-8A37-BC717BF16E4F}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis_output" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>food_rank_chr</t>
+  </si>
+  <si>
+    <t>Multiple R-squared:  0.5088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p-value: &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Adjusted R-squared:  0.4843 </t>
+  </si>
+  <si>
+    <t>p-value: &lt; 2.2e-16</t>
   </si>
 </sst>
 </file>
@@ -517,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2C66F8-3754-4D54-B06A-ECEADD4FBC91}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,12 +794,15 @@
         <v>0.80752000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -797,13 +812,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FBC323-885D-4DB1-8D03-0FEA4D21527E}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1064,6 +1082,17 @@
         <v>0.59091400000000005</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/outputs_analysis_validation/summary_regression_analysis_validation.xlsx
+++ b/outputs_analysis_validation/summary_regression_analysis_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinelo A\Documents\GitHub\Data-Management-Final-Project-Agbim\outputs_analysis_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C7910-577C-4702-8BC8-FDD7CB807D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEB425-A699-4FE0-8DE5-3B35B763979E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4167412-87AA-4A82-8A37-BC717BF16E4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F4167412-87AA-4A82-8A37-BC717BF16E4F}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis_output" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -158,6 +158,66 @@
   </si>
   <si>
     <t>p-value: &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t>% Hispanic</t>
+  </si>
+  <si>
+    <t>%Black</t>
+  </si>
+  <si>
+    <t>% Rural</t>
+  </si>
+  <si>
+    <t>% Obese</t>
+  </si>
+  <si>
+    <t>% Over 65</t>
+  </si>
+  <si>
+    <t>Unemployment Rate</t>
+  </si>
+  <si>
+    <t>% Poverty</t>
+  </si>
+  <si>
+    <t>% Median Income</t>
+  </si>
+  <si>
+    <t>% Ownership</t>
+  </si>
+  <si>
+    <t>% Low Access to Grocery Store</t>
+  </si>
+  <si>
+    <t>% Food Insecure</t>
+  </si>
+  <si>
+    <t>% Uninsured</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R-squared:  0.4947 </t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>Food Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R-squared:  0.4843 </t>
+  </si>
+  <si>
+    <t>R-squared:  0.5088</t>
   </si>
 </sst>
 </file>
@@ -204,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -212,6 +272,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,6 +294,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15171823-6715-41D3-BDDD-709B38E5736A}" name="Table1" displayName="Table1" ref="I2:L16" totalsRowShown="0">
+  <autoFilter ref="I2:L16" xr:uid="{A7A7FA6E-1337-4759-ACDB-E425F52C2984}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D665FF4D-F73A-4AD2-9884-F0715027FC5B}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{09FA941A-7C3E-4565-8559-0EF476773A56}" name="β, Estimate"/>
+    <tableColumn id="3" xr3:uid="{AE0ED741-C5E2-4A6D-A947-9877E0E81FE4}" name="p value"/>
+    <tableColumn id="4" xr3:uid="{6F40FB91-8B80-4A73-8BF2-90CEDDBE7F9C}" name="Significance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C49A885F-6AB6-48C5-848C-7E317265AB0A}" name="Table2" displayName="Table2" ref="K1:N15" totalsRowShown="0">
+  <autoFilter ref="K1:N15" xr:uid="{BD9EB358-E872-42F1-AA9D-4FEDD3D0CFA7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8F6DCB56-7A6C-42E4-B369-003070215BAC}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{2D5970B3-0407-4A2A-811B-56CA25225B9F}" name="β, Estimate"/>
+    <tableColumn id="3" xr3:uid="{18CFE05C-81C1-4DC5-8E45-A3DB0C99EB45}" name="p value"/>
+    <tableColumn id="4" xr3:uid="{D85AE063-90B2-4D6A-AB98-0A192F4091D0}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,573 +619,982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2C66F8-3754-4D54-B06A-ECEADD4FBC91}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-19.630352999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.900309</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-4.0060000000000002</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>8.2399999999999997E-5</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>-19.630352999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8.2399999999999997E-5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.105709</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.4438000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4.3259999999999996</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2.23E-5</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>0.105709</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.23E-5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-9.6560000000000007E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4.0023999999999997E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-2.4129999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.6590000000000001E-2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>-9.6560000000000007E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1.4041E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.9639999999999997E-3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.016</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.4880000000000003E-2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1.4041E-2</v>
+      </c>
+      <c r="K6">
+        <v>4.4880000000000003E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5.8368999999999997E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4.9067E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.19</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.23538999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>5.8368999999999997E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.23538999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-0.17295099999999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.14472099999999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-1.1950000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.23324</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="I8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>-0.17295099999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.23324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.244563</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6.2192999999999998E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3.9319999999999999</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.1E-4</v>
       </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>0.244563</v>
+      </c>
+      <c r="K9">
+        <v>1.1E-4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-2.849E-3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.6129999999999999E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.17699999999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.85994000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>-2.849E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.85994000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.115634</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.5995000000000001E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4.4480000000000004</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1.33E-5</v>
       </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>0.115634</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.33E-5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1.8829999999999999E-3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7.3709999999999999E-3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.255</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.79859000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <v>1.8829999999999999E-3</v>
+      </c>
+      <c r="K12">
+        <v>0.79859000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.120327</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7.9883999999999997E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.506</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.13331000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>0.120327</v>
+      </c>
+      <c r="K13">
+        <v>0.13331000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.63169500000000001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.13255900000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4.7649999999999997</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>3.27E-6</v>
       </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>0.63169500000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.27E-6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-1.065E-2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4.3666000000000003E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.80752000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>-1.065E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.80752000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="K16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FBC323-885D-4DB1-8D03-0FEA4D21527E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>18.022065999999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6.684088</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.6960000000000002</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.509E-3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>18.022065999999999</v>
+      </c>
+      <c r="M2">
+        <v>7.509E-3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>8.3995E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.8632999999999999E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.9340000000000002</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.676E-3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>8.3995E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.676E-3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-9.6749000000000002E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.1980999999999997E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-2.3050000000000002</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.2043E-2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>-9.6749000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.2043E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1.4977000000000001E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.1310000000000002E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3.6748000000000003E-2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>1.4977000000000001E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.6748000000000003E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1.4604000000000001E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.3866999999999998E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.27100000000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.78653700000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>1.4604000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.78653700000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.19730800000000001</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.171759</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.149</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.25180399999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7">
+        <v>-0.19730800000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.25180399999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.298564</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7.2096999999999994E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.141</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>4.7899999999999999E-5</v>
       </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>0.298564</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.7899999999999999E-5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>4.2269999999999999E-3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.9571000000000002E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.216</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.82916199999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>4.2269999999999999E-3</v>
+      </c>
+      <c r="M9">
+        <v>0.82916199999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.10667699999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.5749000000000001E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4.1429999999999998</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>4.7500000000000003E-5</v>
       </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <v>0.10667699999999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.7500000000000003E-5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-0.27234700000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7.5733999999999996E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-3.5960000000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3.9199999999999999E-4</v>
       </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>-0.27234700000000001</v>
+      </c>
+      <c r="M11">
+        <v>3.9199999999999999E-4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3.8124999999999999E-2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7.7155000000000001E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.62166299999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12">
+        <v>3.8124999999999999E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.62166299999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-3.2702520000000002</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.79746600000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-4.101</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>5.6400000000000002E-5</v>
       </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13">
+        <v>-3.2702520000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5.6400000000000002E-5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2.3855000000000001E-2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4.4319999999999998E-2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.59091400000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14">
+        <v>2.3855000000000001E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.59091400000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>